--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_Home_Away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +556,33 @@
       <c r="I2" t="n">
         <v>2.89</v>
       </c>
+      <c r="J2" t="n">
+        <v>279</v>
+      </c>
+      <c r="K2" t="n">
+        <v>199</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +614,33 @@
       <c r="I3" t="n">
         <v>2.55</v>
       </c>
+      <c r="J3" t="n">
+        <v>355</v>
+      </c>
+      <c r="K3" t="n">
+        <v>188</v>
+      </c>
+      <c r="L3" t="n">
+        <v>64</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -573,6 +672,33 @@
       <c r="I4" t="n">
         <v>2.32</v>
       </c>
+      <c r="J4" t="n">
+        <v>246</v>
+      </c>
+      <c r="K4" t="n">
+        <v>212</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>35</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -604,6 +730,33 @@
       <c r="I5" t="n">
         <v>2.2</v>
       </c>
+      <c r="J5" t="n">
+        <v>357</v>
+      </c>
+      <c r="K5" t="n">
+        <v>199</v>
+      </c>
+      <c r="L5" t="n">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -635,6 +788,33 @@
       <c r="I6" t="n">
         <v>2.05</v>
       </c>
+      <c r="J6" t="n">
+        <v>280</v>
+      </c>
+      <c r="K6" t="n">
+        <v>170</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -666,6 +846,33 @@
       <c r="I7" t="n">
         <v>1.89</v>
       </c>
+      <c r="J7" t="n">
+        <v>248</v>
+      </c>
+      <c r="K7" t="n">
+        <v>186</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -697,6 +904,33 @@
       <c r="I8" t="n">
         <v>1.88</v>
       </c>
+      <c r="J8" t="n">
+        <v>203</v>
+      </c>
+      <c r="K8" t="n">
+        <v>196</v>
+      </c>
+      <c r="L8" t="n">
+        <v>35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -728,6 +962,33 @@
       <c r="I9" t="n">
         <v>1.83</v>
       </c>
+      <c r="J9" t="n">
+        <v>213</v>
+      </c>
+      <c r="K9" t="n">
+        <v>149</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -759,6 +1020,33 @@
       <c r="I10" t="n">
         <v>1.75</v>
       </c>
+      <c r="J10" t="n">
+        <v>279</v>
+      </c>
+      <c r="K10" t="n">
+        <v>206</v>
+      </c>
+      <c r="L10" t="n">
+        <v>47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -790,6 +1078,33 @@
       <c r="I11" t="n">
         <v>1.74</v>
       </c>
+      <c r="J11" t="n">
+        <v>259</v>
+      </c>
+      <c r="K11" t="n">
+        <v>187</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -821,6 +1136,33 @@
       <c r="I12" t="n">
         <v>1.69</v>
       </c>
+      <c r="J12" t="n">
+        <v>125</v>
+      </c>
+      <c r="K12" t="n">
+        <v>141</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -852,6 +1194,33 @@
       <c r="I13" t="n">
         <v>1.58</v>
       </c>
+      <c r="J13" t="n">
+        <v>183</v>
+      </c>
+      <c r="K13" t="n">
+        <v>223</v>
+      </c>
+      <c r="L13" t="n">
+        <v>34</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -883,6 +1252,33 @@
       <c r="I14" t="n">
         <v>1.45</v>
       </c>
+      <c r="J14" t="n">
+        <v>320</v>
+      </c>
+      <c r="K14" t="n">
+        <v>275</v>
+      </c>
+      <c r="L14" t="n">
+        <v>59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>40</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -914,6 +1310,33 @@
       <c r="I15" t="n">
         <v>1.38</v>
       </c>
+      <c r="J15" t="n">
+        <v>179</v>
+      </c>
+      <c r="K15" t="n">
+        <v>133</v>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -945,6 +1368,33 @@
       <c r="I16" t="n">
         <v>1.16</v>
       </c>
+      <c r="J16" t="n">
+        <v>279</v>
+      </c>
+      <c r="K16" t="n">
+        <v>209</v>
+      </c>
+      <c r="L16" t="n">
+        <v>29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1426,33 @@
       <c r="I17" t="n">
         <v>1.16</v>
       </c>
+      <c r="J17" t="n">
+        <v>293</v>
+      </c>
+      <c r="K17" t="n">
+        <v>208</v>
+      </c>
+      <c r="L17" t="n">
+        <v>41</v>
+      </c>
+      <c r="M17" t="n">
+        <v>40</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1007,6 +1484,33 @@
       <c r="I18" t="n">
         <v>1.16</v>
       </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="n">
+        <v>226</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24</v>
+      </c>
+      <c r="M18" t="n">
+        <v>28</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1038,6 +1542,33 @@
       <c r="I19" t="n">
         <v>0.95</v>
       </c>
+      <c r="J19" t="n">
+        <v>276</v>
+      </c>
+      <c r="K19" t="n">
+        <v>196</v>
+      </c>
+      <c r="L19" t="n">
+        <v>29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1069,6 +1600,33 @@
       <c r="I20" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="J20" t="n">
+        <v>257</v>
+      </c>
+      <c r="K20" t="n">
+        <v>229</v>
+      </c>
+      <c r="L20" t="n">
+        <v>37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>31</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1099,6 +1657,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.92</v>
+      </c>
+      <c r="J21" t="n">
+        <v>162</v>
+      </c>
+      <c r="K21" t="n">
+        <v>177</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26</v>
+      </c>
+      <c r="M21" t="n">
+        <v>27</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,6 +1751,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1197,6 +1827,33 @@
       <c r="I2" t="n">
         <v>2</v>
       </c>
+      <c r="J2" t="n">
+        <v>268</v>
+      </c>
+      <c r="K2" t="n">
+        <v>210</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1228,6 +1885,33 @@
       <c r="I3" t="n">
         <v>1.83</v>
       </c>
+      <c r="J3" t="n">
+        <v>245</v>
+      </c>
+      <c r="K3" t="n">
+        <v>196</v>
+      </c>
+      <c r="L3" t="n">
+        <v>51</v>
+      </c>
+      <c r="M3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1259,6 +1943,33 @@
       <c r="I4" t="n">
         <v>1.7</v>
       </c>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
+      <c r="K4" t="n">
+        <v>334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>46</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1290,6 +2001,33 @@
       <c r="I5" t="n">
         <v>1.42</v>
       </c>
+      <c r="J5" t="n">
+        <v>231</v>
+      </c>
+      <c r="K5" t="n">
+        <v>221</v>
+      </c>
+      <c r="L5" t="n">
+        <v>35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1321,6 +2059,33 @@
       <c r="I6" t="n">
         <v>1.32</v>
       </c>
+      <c r="J6" t="n">
+        <v>231</v>
+      </c>
+      <c r="K6" t="n">
+        <v>213</v>
+      </c>
+      <c r="L6" t="n">
+        <v>32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>29</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1352,6 +2117,33 @@
       <c r="I7" t="n">
         <v>1.28</v>
       </c>
+      <c r="J7" t="n">
+        <v>179</v>
+      </c>
+      <c r="K7" t="n">
+        <v>287</v>
+      </c>
+      <c r="L7" t="n">
+        <v>33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>42</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1383,6 +2175,33 @@
       <c r="I8" t="n">
         <v>1.22</v>
       </c>
+      <c r="J8" t="n">
+        <v>197</v>
+      </c>
+      <c r="K8" t="n">
+        <v>265</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24</v>
+      </c>
+      <c r="M8" t="n">
+        <v>44</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1414,6 +2233,33 @@
       <c r="I9" t="n">
         <v>1.21</v>
       </c>
+      <c r="J9" t="n">
+        <v>223</v>
+      </c>
+      <c r="K9" t="n">
+        <v>285</v>
+      </c>
+      <c r="L9" t="n">
+        <v>48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>36</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1445,6 +2291,33 @@
       <c r="I10" t="n">
         <v>1.21</v>
       </c>
+      <c r="J10" t="n">
+        <v>201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>42</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1476,6 +2349,33 @@
       <c r="I11" t="n">
         <v>1.08</v>
       </c>
+      <c r="J11" t="n">
+        <v>137</v>
+      </c>
+      <c r="K11" t="n">
+        <v>179</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1507,6 +2407,33 @@
       <c r="I12" t="n">
         <v>1</v>
       </c>
+      <c r="J12" t="n">
+        <v>181</v>
+      </c>
+      <c r="K12" t="n">
+        <v>270</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>43</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1538,6 +2465,33 @@
       <c r="I13" t="n">
         <v>1</v>
       </c>
+      <c r="J13" t="n">
+        <v>183</v>
+      </c>
+      <c r="K13" t="n">
+        <v>187</v>
+      </c>
+      <c r="L13" t="n">
+        <v>29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>41</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1569,6 +2523,33 @@
       <c r="I14" t="n">
         <v>0.85</v>
       </c>
+      <c r="J14" t="n">
+        <v>220</v>
+      </c>
+      <c r="K14" t="n">
+        <v>245</v>
+      </c>
+      <c r="L14" t="n">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +2581,33 @@
       <c r="I15" t="n">
         <v>0.85</v>
       </c>
+      <c r="J15" t="n">
+        <v>155</v>
+      </c>
+      <c r="K15" t="n">
+        <v>172</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1631,6 +2639,33 @@
       <c r="I16" t="n">
         <v>0.71</v>
       </c>
+      <c r="J16" t="n">
+        <v>203</v>
+      </c>
+      <c r="K16" t="n">
+        <v>288</v>
+      </c>
+      <c r="L16" t="n">
+        <v>23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>48</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1662,6 +2697,33 @@
       <c r="I17" t="n">
         <v>0.63</v>
       </c>
+      <c r="J17" t="n">
+        <v>189</v>
+      </c>
+      <c r="K17" t="n">
+        <v>296</v>
+      </c>
+      <c r="L17" t="n">
+        <v>30</v>
+      </c>
+      <c r="M17" t="n">
+        <v>46</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1693,6 +2755,33 @@
       <c r="I18" t="n">
         <v>0.63</v>
       </c>
+      <c r="J18" t="n">
+        <v>190</v>
+      </c>
+      <c r="K18" t="n">
+        <v>263</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24</v>
+      </c>
+      <c r="M18" t="n">
+        <v>47</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1724,6 +2813,33 @@
       <c r="I19" t="n">
         <v>0.53</v>
       </c>
+      <c r="J19" t="n">
+        <v>169</v>
+      </c>
+      <c r="K19" t="n">
+        <v>287</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22</v>
+      </c>
+      <c r="M19" t="n">
+        <v>65</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1755,6 +2871,33 @@
       <c r="I20" t="n">
         <v>0.35</v>
       </c>
+      <c r="J20" t="n">
+        <v>200</v>
+      </c>
+      <c r="K20" t="n">
+        <v>345</v>
+      </c>
+      <c r="L20" t="n">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>51</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1785,6 +2928,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" t="n">
+        <v>153</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>33</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_Home_Away.xlsx
@@ -536,16 +536,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>45.709</v>
+        <v>48.5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.655</v>
+        <v>14.877</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>32</v>
@@ -557,25 +557,25 @@
         <v>2.89</v>
       </c>
       <c r="J2" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K2" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M2" t="n">
         <v>16</v>
       </c>
       <c r="N2" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="Q2" t="n">
         <v>0.84</v>
@@ -591,55 +591,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>50.343</v>
+        <v>45.411</v>
       </c>
       <c r="D3" t="n">
-        <v>18.555</v>
+        <v>17.835</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L3" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>24</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="O3" t="n">
         <v>0.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -649,55 +649,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>35.59</v>
+        <v>34.14</v>
       </c>
       <c r="D4" t="n">
-        <v>24.368</v>
+        <v>23.422</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0.11</v>
       </c>
       <c r="P4" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="R4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -768,10 +768,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>39.245</v>
+        <v>38.951</v>
       </c>
       <c r="D6" t="n">
-        <v>17.399</v>
+        <v>17.379</v>
       </c>
       <c r="E6" t="n">
         <v>38</v>
@@ -789,16 +789,16 @@
         <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L6" t="n">
         <v>51</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>0.37</v>
@@ -877,84 +877,84 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>25.03</v>
+        <v>24.112</v>
       </c>
       <c r="D8" t="n">
-        <v>21.796</v>
+        <v>19.636</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K8" t="n">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="L8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="O8" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="P8" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>25.474</v>
+        <v>27.44</v>
       </c>
       <c r="D9" t="n">
-        <v>18.823</v>
+        <v>23.168</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>33</v>
@@ -963,22 +963,22 @@
         <v>1.83</v>
       </c>
       <c r="J9" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K9" t="n">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="L9" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" t="n">
         <v>32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>24</v>
       </c>
       <c r="N9" t="n">
         <v>0.44</v>
       </c>
       <c r="O9" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="P9" t="n">
         <v>0.44</v>
@@ -987,123 +987,123 @@
         <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>33.208</v>
+        <v>29.493</v>
       </c>
       <c r="D10" t="n">
-        <v>20.244</v>
+        <v>24.225</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K10" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L10" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="O10" t="n">
         <v>0.25</v>
       </c>
       <c r="P10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>27.777</v>
+        <v>33.208</v>
       </c>
       <c r="D11" t="n">
-        <v>23.08</v>
+        <v>20.244</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L11" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N11" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P11" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -1174,49 +1174,49 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>21.144</v>
+        <v>21.654</v>
       </c>
       <c r="D13" t="n">
-        <v>17.521</v>
+        <v>18.099</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="J13" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K13" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
         <v>34</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
         <v>0.47</v>
       </c>
       <c r="O13" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="P13" t="n">
         <v>0.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="R13" t="n">
         <v>0.32</v>
@@ -1232,19 +1232,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>44.053</v>
+        <v>44.323</v>
       </c>
       <c r="D14" t="n">
-        <v>31.153</v>
+        <v>30.518</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>29</v>
@@ -1256,22 +1256,22 @@
         <v>320</v>
       </c>
       <c r="K14" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" t="n">
         <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O14" t="n">
         <v>0.1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.45</v>
@@ -1341,142 +1341,142 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>25.566</v>
+        <v>33.135</v>
       </c>
       <c r="D16" t="n">
-        <v>26.228</v>
+        <v>28.518</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="J16" t="n">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="K16" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L16" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N16" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="O16" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P16" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="R16" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>30.731</v>
+        <v>22.464</v>
       </c>
       <c r="D17" t="n">
-        <v>27.246</v>
+        <v>19.555</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H17" t="n">
         <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="J17" t="n">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L17" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="O17" t="n">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
       <c r="P17" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="R17" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>23.155</v>
+        <v>24.534</v>
       </c>
       <c r="D18" t="n">
-        <v>21.284</v>
+        <v>25.661</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H18" t="n">
         <v>22</v>
@@ -1485,31 +1485,31 @@
         <v>1.16</v>
       </c>
       <c r="J18" t="n">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="K18" t="n">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L18" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="O18" t="n">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="P18" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="R18" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
@@ -1519,55 +1519,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>27.48</v>
+        <v>29.303</v>
       </c>
       <c r="D19" t="n">
-        <v>25.708</v>
+        <v>26.038</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" t="n">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K19" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" t="n">
         <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="R19" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20">
@@ -1804,55 +1804,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>32.034</v>
+        <v>33.492</v>
       </c>
       <c r="D2" t="n">
-        <v>24.859</v>
+        <v>26.208</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
       </c>
       <c r="H2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47</v>
+      </c>
+      <c r="M2" t="n">
         <v>36</v>
       </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>268</v>
-      </c>
-      <c r="K2" t="n">
-        <v>210</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>33</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="O2" t="n">
         <v>0.11</v>
       </c>
       <c r="P2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -1865,34 +1865,34 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>35.762</v>
+        <v>34.861</v>
       </c>
       <c r="D3" t="n">
-        <v>19.75</v>
+        <v>19.713</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="J3" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
         <v>28</v>
@@ -1901,13 +1901,13 @@
         <v>0.78</v>
       </c>
       <c r="O3" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P3" t="n">
         <v>0.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="R3" t="n">
         <v>0.39</v>
@@ -1923,43 +1923,43 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>32.205</v>
+        <v>31.508</v>
       </c>
       <c r="D4" t="n">
-        <v>39.411</v>
+        <v>38.635</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
+        <v>43</v>
+      </c>
+      <c r="M4" t="n">
         <v>44</v>
       </c>
-      <c r="M4" t="n">
-        <v>46</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P4" t="n">
         <v>0.25</v>
@@ -1981,19 +1981,19 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>26.653</v>
+        <v>27.013</v>
       </c>
       <c r="D5" t="n">
-        <v>24.708</v>
+        <v>24.298</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>27</v>
@@ -2002,22 +2002,22 @@
         <v>1.42</v>
       </c>
       <c r="J5" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K5" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="n">
         <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="O5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="P5" t="n">
         <v>0.42</v>
@@ -2155,16 +2155,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>19.378</v>
+        <v>19.6</v>
       </c>
       <c r="D8" t="n">
-        <v>31.466</v>
+        <v>34.257</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
         <v>-8</v>
@@ -2176,22 +2176,22 @@
         <v>1.22</v>
       </c>
       <c r="J8" t="n">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K8" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
         <v>24</v>
       </c>
       <c r="M8" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="P8" t="n">
         <v>0.33</v>
@@ -2268,55 +2268,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>19.411</v>
+        <v>17.682</v>
       </c>
       <c r="D10" t="n">
-        <v>29.642</v>
+        <v>28.951</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="J10" t="n">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M10" t="n">
         <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="O10" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="P10" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="R10" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -2326,55 +2326,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>10.355</v>
+        <v>11.727</v>
       </c>
       <c r="D11" t="n">
-        <v>24.081</v>
+        <v>26.491</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
         <v>-7</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J11" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K11" t="n">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="R11" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>17.435</v>
+        <v>16.927</v>
       </c>
       <c r="D12" t="n">
-        <v>34.371</v>
+        <v>33.937</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -2402,16 +2402,16 @@
         <v>-9</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K12" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L12" t="n">
         <v>20</v>
@@ -2420,19 +2420,19 @@
         <v>43</v>
       </c>
       <c r="N12" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="P12" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="R12" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2500,55 +2500,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>21.005</v>
+        <v>20.36</v>
       </c>
       <c r="D14" t="n">
-        <v>30.303</v>
+        <v>27.592</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
         <v>-15</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J14" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="L14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="O14" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="P14" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15">
@@ -2558,55 +2558,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>14.019</v>
+        <v>15.164</v>
       </c>
       <c r="D15" t="n">
-        <v>19.51</v>
+        <v>21.226</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H15" t="n">
         <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J15" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K15" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="O15" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -2616,13 +2616,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>21.757</v>
+        <v>21.02</v>
       </c>
       <c r="D16" t="n">
-        <v>35.09</v>
+        <v>34.325</v>
       </c>
       <c r="E16" t="n">
         <v>21</v>
@@ -2634,16 +2634,16 @@
         <v>-14</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="J16" t="n">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K16" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="L16" t="n">
         <v>23</v>
@@ -2652,19 +2652,19 @@
         <v>48</v>
       </c>
       <c r="N16" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -2790,55 +2790,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>18.002</v>
+        <v>19.218</v>
       </c>
       <c r="D19" t="n">
-        <v>42.682</v>
+        <v>43.37</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
         <v>-19</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="J19" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K19" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N19" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="P19" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="R19" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -2848,55 +2848,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>21.049</v>
+        <v>21.379</v>
       </c>
       <c r="D20" t="n">
-        <v>43.724</v>
+        <v>45.547</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="H20" t="n">
         <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K20" t="n">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L20" t="n">
         <v>25</v>
       </c>
       <c r="M20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="21">
@@ -2906,46 +2906,46 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24.477</v>
+      </c>
+      <c r="E21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>11.783</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21.393</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11</v>
-      </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K21" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L21" t="n">
         <v>12</v>
       </c>
       <c r="M21" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N21" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="O21" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
